--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Col18a1-Gpc4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H2">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J2">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>6.992380999999999</v>
+        <v>6.699658666666667</v>
       </c>
       <c r="N2">
-        <v>20.977143</v>
+        <v>20.098976</v>
       </c>
       <c r="O2">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="P2">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="Q2">
-        <v>110.4376142365393</v>
+        <v>3.878879046044445</v>
       </c>
       <c r="R2">
-        <v>993.9385281288539</v>
+        <v>34.9099114144</v>
       </c>
       <c r="S2">
-        <v>0.04317123206754277</v>
+        <v>0.002136464799627833</v>
       </c>
       <c r="T2">
-        <v>0.04317123206754276</v>
+        <v>0.002136464799627832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H3">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J3">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>92.50398</v>
       </c>
       <c r="O3">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="P3">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="Q3">
-        <v>487.0023939191601</v>
+        <v>17.852240318</v>
       </c>
       <c r="R3">
-        <v>4383.021545272441</v>
+        <v>160.670162862</v>
       </c>
       <c r="S3">
-        <v>0.1903743892936867</v>
+        <v>0.009832913731300392</v>
       </c>
       <c r="T3">
-        <v>0.1903743892936867</v>
+        <v>0.00983291373130039</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>15.79399266666667</v>
+        <v>0.5789666666666667</v>
       </c>
       <c r="H4">
-        <v>47.381978</v>
+        <v>1.7369</v>
       </c>
       <c r="I4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035473</v>
       </c>
       <c r="J4">
-        <v>0.2968109173698557</v>
+        <v>0.01523705650035472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>30.740961</v>
       </c>
       <c r="O4">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="P4">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="Q4">
-        <v>161.8408375334287</v>
+        <v>5.932663906766667</v>
       </c>
       <c r="R4">
-        <v>1456.567537800858</v>
+        <v>53.3939751609</v>
       </c>
       <c r="S4">
-        <v>0.06326529600862624</v>
+        <v>0.003267677969426503</v>
       </c>
       <c r="T4">
-        <v>0.06326529600862622</v>
+        <v>0.003267677969426502</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J5">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>6.992380999999999</v>
+        <v>6.699658666666667</v>
       </c>
       <c r="N5">
-        <v>20.977143</v>
+        <v>20.098976</v>
       </c>
       <c r="O5">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="P5">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="Q5">
-        <v>173.8973595753753</v>
+        <v>166.6174872607218</v>
       </c>
       <c r="R5">
-        <v>1565.076236178378</v>
+        <v>1499.557385346496</v>
       </c>
       <c r="S5">
-        <v>0.06797831805821077</v>
+        <v>0.0917719764677839</v>
       </c>
       <c r="T5">
-        <v>0.06797831805821077</v>
+        <v>0.09177197646778389</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J6">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>92.50398</v>
       </c>
       <c r="O6">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="P6">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="Q6">
         <v>766.8440774901198</v>
@@ -818,10 +818,10 @@
         <v>6901.596697411079</v>
       </c>
       <c r="S6">
-        <v>0.2997674647157799</v>
+        <v>0.422373412244303</v>
       </c>
       <c r="T6">
-        <v>0.2997674647157799</v>
+        <v>0.422373412244303</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>74.60864599999999</v>
       </c>
       <c r="I7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="J7">
-        <v>0.4673646309781075</v>
+        <v>0.6545086962501954</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>30.740961</v>
       </c>
       <c r="O7">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="P7">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="Q7">
         <v>254.8379418832006</v>
@@ -880,10 +880,10 @@
         <v>2293.541476948806</v>
       </c>
       <c r="S7">
-        <v>0.0996188482041169</v>
+        <v>0.1403633075381085</v>
       </c>
       <c r="T7">
-        <v>0.0996188482041169</v>
+        <v>0.1403633075381085</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,40 +912,40 @@
         <v>37.646287</v>
       </c>
       <c r="I8">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J8">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>6.992380999999999</v>
+        <v>6.699658666666667</v>
       </c>
       <c r="N8">
-        <v>20.977143</v>
+        <v>20.098976</v>
       </c>
       <c r="O8">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="P8">
-        <v>0.1454502834669897</v>
+        <v>0.1402150605386345</v>
       </c>
       <c r="Q8">
-        <v>87.74572731311567</v>
+        <v>84.0724243224569</v>
       </c>
       <c r="R8">
-        <v>789.7115458180409</v>
+        <v>756.651818902112</v>
       </c>
       <c r="S8">
-        <v>0.03430073334123616</v>
+        <v>0.0463066192712228</v>
       </c>
       <c r="T8">
-        <v>0.03430073334123616</v>
+        <v>0.04630661927122279</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>37.646287</v>
       </c>
       <c r="I9">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J9">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>92.50398</v>
       </c>
       <c r="O9">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="P9">
-        <v>0.641399551541635</v>
+        <v>0.6453289538613627</v>
       </c>
       <c r="Q9">
         <v>386.93681996914</v>
@@ -1004,10 +1004,10 @@
         <v>3482.43137972226</v>
       </c>
       <c r="S9">
-        <v>0.1512576975321684</v>
+        <v>0.2131226278857594</v>
       </c>
       <c r="T9">
-        <v>0.1512576975321684</v>
+        <v>0.2131226278857593</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>37.646287</v>
       </c>
       <c r="I10">
-        <v>0.2358244516520368</v>
+        <v>0.33025424724945</v>
       </c>
       <c r="J10">
-        <v>0.2358244516520368</v>
+        <v>0.3302542472494499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>30.740961</v>
       </c>
       <c r="O10">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="P10">
-        <v>0.2131501649913754</v>
+        <v>0.2144559856000028</v>
       </c>
       <c r="Q10">
-        <v>128.5870044957564</v>
+        <v>128.5870044957563</v>
       </c>
       <c r="R10">
         <v>1157.283040461807</v>
       </c>
       <c r="S10">
-        <v>0.05026602077863229</v>
+        <v>0.07082500009246782</v>
       </c>
       <c r="T10">
-        <v>0.05026602077863228</v>
+        <v>0.0708250000924678</v>
       </c>
     </row>
   </sheetData>
